--- a/SNR_SENSITIVITY/snr_sensitivity_summary.xlsx
+++ b/SNR_SENSITIVITY/snr_sensitivity_summary.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="412" sheetId="1" r:id="rId1"/>
+    <sheet name="670" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>vvv_1000</t>
   </si>
@@ -519,4 +520,126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.000234570165048353</v>
+      </c>
+      <c r="C2">
+        <v>0.000229338766075671</v>
+      </c>
+      <c r="D2">
+        <v>-2.23020645937827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.000215727763134055</v>
+      </c>
+      <c r="C3">
+        <v>0.000210490528843366</v>
+      </c>
+      <c r="D3">
+        <v>-2.42770527752368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.000201063463464379</v>
+      </c>
+      <c r="C4">
+        <v>0.000194778767763637</v>
+      </c>
+      <c r="D4">
+        <v>-3.12572736610384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.000188494072062895</v>
+      </c>
+      <c r="C5">
+        <v>0.000182209376362152</v>
+      </c>
+      <c r="D5">
+        <v>-3.33416092716449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.000175936380401254</v>
+      </c>
+      <c r="C6">
+        <v>0.000169651684700511</v>
+      </c>
+      <c r="D6">
+        <v>-3.57214106963492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.000167552876519039</v>
+      </c>
+      <c r="C7">
+        <v>0.000160224648425356</v>
+      </c>
+      <c r="D7">
+        <v>-4.37368086178515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.000158653463586234</v>
+      </c>
+      <c r="C8">
+        <v>0.000150797597598284</v>
+      </c>
+      <c r="D8">
+        <v>-4.95158807779771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>